--- a/df_repository.xlsx
+++ b/df_repository.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\PhD_Fuster-Calvo\BiodivDatasetRetrieval\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\PhD_Fuster-Calvo\BiodivDatasetRetrieval\injection_automat_data_ATLAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4155" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1333">
   <si>
     <t>url</t>
   </si>
@@ -5621,6 +5621,27 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>injection_process</t>
+  </si>
+  <si>
+    <t>injection_comments</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>discarded</t>
+  </si>
+  <si>
+    <t>.vcf format</t>
+  </si>
+  <si>
+    <t>experimental plots</t>
+  </si>
+  <si>
+    <t>only climatic data</t>
   </si>
 </sst>
 </file>
@@ -6037,13 +6058,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ165"/>
+  <dimension ref="A1:AL165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AB59" sqref="AB59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6053,7 +6074,7 @@
     <col min="21" max="21" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1325</v>
       </c>
@@ -6162,8 +6183,14 @@
       <c r="AJ1" t="s">
         <v>32</v>
       </c>
+      <c r="AK1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1327</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6225,7 +6252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6287,7 +6314,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6367,7 +6394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6464,8 +6491,11 @@
       <c r="AJ5" t="s">
         <v>55</v>
       </c>
+      <c r="AK5" t="s">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6566,7 +6596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6628,7 +6658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6702,7 +6732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6788,7 +6818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6886,7 +6916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6987,7 +7017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7087,8 +7117,11 @@
       <c r="AJ12" t="s">
         <v>55</v>
       </c>
+      <c r="AK12" t="s">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7103,7 +7136,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7204,7 +7237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7296,7 +7329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7358,7 +7391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7423,7 +7456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7523,8 +7556,14 @@
       <c r="AJ18" t="s">
         <v>55</v>
       </c>
+      <c r="AK18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>1330</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7625,7 +7664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7690,7 +7729,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7790,8 +7829,11 @@
       <c r="AJ21" t="s">
         <v>55</v>
       </c>
+      <c r="AK21" t="s">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7889,7 +7931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7951,7 +7993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8013,7 +8055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8090,7 +8132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8191,7 +8233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8292,7 +8334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8354,7 +8396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8455,7 +8497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8552,8 +8594,14 @@
       <c r="AJ30" t="s">
         <v>55</v>
       </c>
+      <c r="AK30" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>1331</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8656,8 +8704,14 @@
       <c r="AJ31" t="s">
         <v>55</v>
       </c>
+      <c r="AK31" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>1332</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8758,7 +8812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8788,11 +8842,11 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="11" t="s">
         <v>328</v>
       </c>
       <c r="C34" t="s">
@@ -8888,8 +8942,11 @@
       <c r="AJ34" t="s">
         <v>55</v>
       </c>
+      <c r="AK34" t="s">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8951,7 +9008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9013,7 +9070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9075,7 +9132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9155,7 +9212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9256,7 +9313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9363,7 +9420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9464,11 +9521,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="11" t="s">
         <v>390</v>
       </c>
       <c r="C42" t="s">
@@ -9565,7 +9622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9663,7 +9720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9725,7 +9782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9787,7 +9844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9888,7 +9945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9953,7 +10010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -19877,9 +19934,11 @@
     <hyperlink ref="B133" r:id="rId52"/>
     <hyperlink ref="B144" r:id="rId53"/>
     <hyperlink ref="B5" r:id="rId54"/>
+    <hyperlink ref="B34" r:id="rId55"/>
+    <hyperlink ref="B42" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 

--- a/df_repository.xlsx
+++ b/df_repository.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="1335">
   <si>
     <t>url</t>
   </si>
@@ -5642,6 +5642,12 @@
   </si>
   <si>
     <t>only climatic data</t>
+  </si>
+  <si>
+    <t>presence-absence data</t>
+  </si>
+  <si>
+    <t>measurements on target individuals</t>
   </si>
 </sst>
 </file>
@@ -6061,10 +6067,10 @@
   <dimension ref="A1:AL165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB59" sqref="AB59"/>
+      <selection pane="bottomRight" activeCell="AK85" sqref="AK85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9621,6 +9627,9 @@
       <c r="AJ42" t="s">
         <v>55</v>
       </c>
+      <c r="AK42" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -10072,7 +10081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10164,7 +10173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10265,7 +10274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10363,7 +10372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10425,7 +10434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10493,7 +10502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10594,7 +10603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10680,7 +10689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10781,7 +10790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10882,7 +10891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10947,7 +10956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11047,8 +11056,11 @@
       <c r="AJ59" t="s">
         <v>55</v>
       </c>
+      <c r="AK59" t="s">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="60" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11110,7 +11122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11211,7 +11223,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11273,7 +11285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11379,8 +11391,14 @@
       <c r="AJ63" t="s">
         <v>55</v>
       </c>
+      <c r="AK63" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>1333</v>
+      </c>
     </row>
-    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11481,7 +11499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11573,11 +11591,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="11" t="s">
         <v>576</v>
       </c>
       <c r="C66" t="s">
@@ -11673,8 +11691,11 @@
       <c r="AJ66" t="s">
         <v>55</v>
       </c>
+      <c r="AK66" t="s">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11736,7 +11757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11836,8 +11857,14 @@
       <c r="AJ68" t="s">
         <v>55</v>
       </c>
+      <c r="AK68" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>1334</v>
+      </c>
     </row>
-    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11899,7 +11926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11961,7 +11988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12050,7 +12077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12151,7 +12178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12213,7 +12240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12314,7 +12341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12376,7 +12403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12438,7 +12465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12515,7 +12542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12583,7 +12610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12645,7 +12672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13079,7 +13106,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="11" t="s">
         <v>718</v>
       </c>
       <c r="C85" t="s">
@@ -19936,9 +19963,11 @@
     <hyperlink ref="B5" r:id="rId54"/>
     <hyperlink ref="B34" r:id="rId55"/>
     <hyperlink ref="B42" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B85" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
 

--- a/df_repository.xlsx
+++ b/df_repository.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1338">
   <si>
     <t>url</t>
   </si>
@@ -5648,6 +5648,15 @@
   </si>
   <si>
     <t>measurements on target individuals</t>
+  </si>
+  <si>
+    <t>authors do not clarify which are data from experimental plots and which are not</t>
+  </si>
+  <si>
+    <t>only genetic data</t>
+  </si>
+  <si>
+    <t>not time series</t>
   </si>
 </sst>
 </file>
@@ -6067,10 +6076,10 @@
   <dimension ref="A1:AL165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK85" sqref="AK85"/>
+      <selection pane="bottomRight" activeCell="AK167" sqref="AK167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12737,7 +12746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12838,7 +12847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12900,7 +12909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13001,7 +13010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13102,7 +13111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13199,8 +13208,14 @@
       <c r="AJ85" t="s">
         <v>55</v>
       </c>
+      <c r="AK85" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>1335</v>
+      </c>
     </row>
-    <row r="86" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13301,7 +13316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13399,7 +13414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13500,7 +13515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13562,7 +13577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13630,7 +13645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13731,7 +13746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13793,11 +13808,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="11" t="s">
         <v>778</v>
       </c>
       <c r="C93" t="s">
@@ -13893,8 +13908,14 @@
       <c r="AJ93" t="s">
         <v>55</v>
       </c>
+      <c r="AK93" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>1336</v>
+      </c>
     </row>
-    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13995,7 +14016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -14057,7 +14078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -14152,7 +14173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -14250,7 +14271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -14312,7 +14333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -14374,7 +14395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -14475,7 +14496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -14537,7 +14558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14637,8 +14658,11 @@
       <c r="AJ102" t="s">
         <v>55</v>
       </c>
+      <c r="AK102" t="s">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14738,8 +14762,14 @@
       <c r="AJ103" t="s">
         <v>55</v>
       </c>
+      <c r="AK103" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>1337</v>
+      </c>
     </row>
-    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14804,7 +14834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -14908,7 +14938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -15009,7 +15039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -15110,7 +15140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15172,7 +15202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15267,7 +15297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -15329,7 +15359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -15421,7 +15451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -15486,7 +15516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -15587,7 +15617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -15687,8 +15717,11 @@
       <c r="AJ114" t="s">
         <v>55</v>
       </c>
+      <c r="AK114" t="s">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="115" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -15750,7 +15783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -15812,7 +15845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -15912,8 +15945,14 @@
       <c r="AJ117" t="s">
         <v>55</v>
       </c>
+      <c r="AK117" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>1337</v>
+      </c>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -16005,7 +16044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -16106,7 +16145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -16168,7 +16207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -16266,7 +16305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -16328,7 +16367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -16420,7 +16459,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -16521,7 +16560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -16613,7 +16652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -16714,7 +16753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -16806,7 +16845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -16868,7 +16907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -16972,7 +17011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -17034,7 +17073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -17135,7 +17174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -17239,7 +17278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -17325,7 +17364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -17426,7 +17465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -17491,7 +17530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -17553,7 +17592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -17654,7 +17693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -17758,7 +17797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -17853,7 +17892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -17915,7 +17954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18016,7 +18055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18116,8 +18155,14 @@
       <c r="AJ142" t="s">
         <v>55</v>
       </c>
+      <c r="AK142" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL142" t="s">
+        <v>1337</v>
+      </c>
     </row>
-    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18129,7 +18174,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18221,7 +18266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -18283,7 +18328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -18384,7 +18429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -18446,7 +18491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -18547,7 +18592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -18609,7 +18654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -18704,11 +18749,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="11" t="s">
         <v>1200</v>
       </c>
       <c r="C151" t="s">
@@ -18804,8 +18849,11 @@
       <c r="AJ151" t="s">
         <v>55</v>
       </c>
+      <c r="AK151" t="s">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -18906,7 +18954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -19007,7 +19055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -19069,7 +19117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -19131,7 +19179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -19232,7 +19280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -19294,7 +19342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -19365,7 +19413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -19427,7 +19475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -19965,9 +20013,11 @@
     <hyperlink ref="B42" r:id="rId56"/>
     <hyperlink ref="B66" r:id="rId57"/>
     <hyperlink ref="B85" r:id="rId58"/>
+    <hyperlink ref="B93" r:id="rId59"/>
+    <hyperlink ref="B151" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
 

--- a/df_repository.xlsx
+++ b/df_repository.xlsx
@@ -6076,10 +6076,10 @@
   <dimension ref="A1:AL165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK167" sqref="AK167"/>
+      <selection pane="bottomRight" activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7569,7 +7569,7 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK18" t="s">
         <v>1329</v>
@@ -8717,7 +8717,7 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK31" t="s">
         <v>1329</v>
@@ -11398,7 +11398,7 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK63" t="s">
         <v>1329</v>
@@ -11864,7 +11864,7 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK68" t="s">
         <v>1329</v>
@@ -13906,7 +13906,7 @@
         <v>44</v>
       </c>
       <c r="AJ93" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK93" t="s">
         <v>1329</v>
@@ -14760,7 +14760,7 @@
         <v>44</v>
       </c>
       <c r="AJ103" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK103" t="s">
         <v>1329</v>
@@ -15943,7 +15943,7 @@
         <v>44</v>
       </c>
       <c r="AJ117" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK117" t="s">
         <v>1329</v>
@@ -18153,7 +18153,7 @@
         <v>44</v>
       </c>
       <c r="AJ142" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK142" t="s">
         <v>1329</v>
